--- a/Risk assessment.xlsx
+++ b/Risk assessment.xlsx
@@ -20,30 +20,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Risk factors</t>
   </si>
   <si>
-    <t xml:space="preserve">Threat</t>
-  </si>
-  <si>
     <t xml:space="preserve">Probability</t>
   </si>
   <si>
     <t xml:space="preserve">Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">User data can be stolen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hack/data safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low</t>
+    <t xml:space="preserve">budget risks cannot be reviewed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">personnel risks cannot be reviewed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is estimated schedule realistic?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">scope is not defined properly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user data can be stolen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is it possible built multi OS app in time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">are the sw requirements well understood? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">is feedback positive?   </t>
   </si>
 </sst>
 </file>
@@ -79,12 +88,30 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF38"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5429"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,8 +148,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -135,6 +178,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF38"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF5429"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -143,16 +246,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,22 +267,93 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
